--- a/data/trans_orig/P6714-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6714-Estudios-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>3239</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>887</v>
+        <v>891</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9479</v>
+        <v>8712</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01769651340343283</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00484780758597223</v>
+        <v>0.004869468406897228</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05179509941442531</v>
+        <v>0.04760456213716868</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5383</v>
+        <v>5026</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.006907470956890997</v>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03924996828568551</v>
+        <v>0.03664924274399059</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -784,19 +784,19 @@
         <v>4186</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9603</v>
+        <v>10060</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01307503081808704</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00352583392491497</v>
+        <v>0.003520034920589841</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02999477377565132</v>
+        <v>0.03142204214427979</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>10172</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5160</v>
+        <v>5026</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>19815</v>
+        <v>19805</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05557746699596251</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02819273138305254</v>
+        <v>0.02745947632507715</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1082700328932059</v>
+        <v>0.1082159360916829</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -834,19 +834,19 @@
         <v>6122</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2114</v>
+        <v>1828</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>13081</v>
+        <v>13669</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04463963646005253</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01541619049911216</v>
+        <v>0.01332954987819402</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09538533872389506</v>
+        <v>0.09967067251323693</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>13</v>
@@ -855,19 +855,19 @@
         <v>16294</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>9085</v>
+        <v>9258</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>28471</v>
+        <v>26792</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05089225108420441</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02837561024518676</v>
+        <v>0.02891672782749843</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08892714852172987</v>
+        <v>0.08368489848669457</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>25013</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15878</v>
+        <v>16854</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>35263</v>
+        <v>36212</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1366701401950738</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08675820983087301</v>
+        <v>0.092088310994538</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1926770154652786</v>
+        <v>0.1978605393195498</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>26</v>
@@ -905,19 +905,19 @@
         <v>28043</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>18904</v>
+        <v>20161</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>37509</v>
+        <v>37488</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2044878135227918</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1378475842854092</v>
+        <v>0.1470149304794328</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2735104135549367</v>
+        <v>0.2733593544274073</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>49</v>
@@ -926,19 +926,19 @@
         <v>53057</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>40313</v>
+        <v>40231</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>67574</v>
+        <v>67553</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1657198170144635</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1259150306824715</v>
+        <v>0.1256600315362657</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2110647689572463</v>
+        <v>0.2109990178955511</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>40271</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>29609</v>
+        <v>30700</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>52553</v>
+        <v>53038</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2200395288747973</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1617840115572505</v>
+        <v>0.1677405058266119</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2871492824097013</v>
+        <v>0.2897950133617443</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>20</v>
@@ -976,19 +976,19 @@
         <v>20865</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>13579</v>
+        <v>13391</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>30324</v>
+        <v>29715</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1521450786739622</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09901799573830358</v>
+        <v>0.09764361767263913</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2211180403017416</v>
+        <v>0.216674372287898</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>59</v>
@@ -997,19 +997,19 @@
         <v>61136</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>48029</v>
+        <v>47818</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>76766</v>
+        <v>76249</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1909569647084696</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1500157588138112</v>
+        <v>0.1493563393967246</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2397747760728766</v>
+        <v>0.2381614579018957</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>104323</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>90383</v>
+        <v>91047</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>117898</v>
+        <v>118136</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5700163505307336</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4938469479157525</v>
+        <v>0.4974763467579427</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6441881869018803</v>
+        <v>0.6454909122426374</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>75</v>
@@ -1047,19 +1047,19 @@
         <v>81162</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>69691</v>
+        <v>69442</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>92861</v>
+        <v>92851</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5918200003863024</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5081777940871741</v>
+        <v>0.5063645275211639</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6771317713592027</v>
+        <v>0.6770580622898474</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>177</v>
@@ -1068,19 +1068,19 @@
         <v>185485</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>167650</v>
+        <v>168204</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>201797</v>
+        <v>204102</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5793559363747754</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5236492246073029</v>
+        <v>0.5253793860214012</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6303052085476198</v>
+        <v>0.6375027931787611</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>15417</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9231</v>
+        <v>9474</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24114</v>
+        <v>24078</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01687570063889474</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01010445523540328</v>
+        <v>0.01037085094002171</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02639611537612398</v>
+        <v>0.02635595366134102</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -1193,19 +1193,19 @@
         <v>14912</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8602</v>
+        <v>8272</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>24471</v>
+        <v>23949</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02621309682570313</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01512000742225763</v>
+        <v>0.01454094516563761</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04301579288903407</v>
+        <v>0.0420984617457424</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>30</v>
@@ -1214,19 +1214,19 @@
         <v>30329</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>21056</v>
+        <v>21009</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>42988</v>
+        <v>42128</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02045892689954244</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.014203460228041</v>
+        <v>0.01417196976233641</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02899818340630229</v>
+        <v>0.02841817321877479</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>31622</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>21646</v>
+        <v>21831</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>45836</v>
+        <v>45132</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03461442951988985</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02369370249993616</v>
+        <v>0.02389653069247016</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05017326370430487</v>
+        <v>0.04940215763571598</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>24</v>
@@ -1264,19 +1264,19 @@
         <v>28362</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>18401</v>
+        <v>18374</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>41096</v>
+        <v>41515</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04985436644802073</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0323463089152842</v>
+        <v>0.03229731247522752</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.07223955156170993</v>
+        <v>0.07297665627068309</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>53</v>
@@ -1285,19 +1285,19 @@
         <v>59984</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>45030</v>
+        <v>44914</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>76704</v>
+        <v>78696</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04046275608962907</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03037547680463249</v>
+        <v>0.03029737974145777</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05174190085168926</v>
+        <v>0.05308520306327479</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>137396</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>116537</v>
+        <v>116914</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>159860</v>
+        <v>162321</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1503970995482245</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1275644592282049</v>
+        <v>0.1279765273803166</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1749864369565024</v>
+        <v>0.1776802322942714</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>94</v>
@@ -1335,19 +1335,19 @@
         <v>100127</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>82770</v>
+        <v>84094</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>119190</v>
+        <v>118772</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.176005506936264</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1454945280318324</v>
+        <v>0.1478211888103189</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2095138544255658</v>
+        <v>0.2087797804616254</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>224</v>
@@ -1356,19 +1356,19 @@
         <v>237523</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>208642</v>
+        <v>209941</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>264182</v>
+        <v>267189</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1602243271832503</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1407420593623106</v>
+        <v>0.141618582932021</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1782072278715497</v>
+        <v>0.1802357246901757</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>229795</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>203251</v>
+        <v>204554</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>255278</v>
+        <v>259142</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2515392641808522</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2224837370537978</v>
+        <v>0.2239094229851477</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2794336691688605</v>
+        <v>0.2836631456684382</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>166</v>
@@ -1406,19 +1406,19 @@
         <v>175633</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>156773</v>
+        <v>154082</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>201034</v>
+        <v>200552</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3087309150642969</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2755778929984838</v>
+        <v>0.270847304474208</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.353380632558479</v>
+        <v>0.3525348325614716</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>388</v>
@@ -1427,19 +1427,19 @@
         <v>405428</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>370588</v>
+        <v>368547</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>441360</v>
+        <v>438645</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.273486563110384</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2499846372448858</v>
+        <v>0.2486077388374465</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2977250041694707</v>
+        <v>0.2958932885006244</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>499325</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>470238</v>
+        <v>468956</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>531830</v>
+        <v>530751</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5465735061121387</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5147337155311931</v>
+        <v>0.513330628792654</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5821543173416989</v>
+        <v>0.5809733737771289</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>233</v>
@@ -1477,19 +1477,19 @@
         <v>249853</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>226383</v>
+        <v>223554</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>273286</v>
+        <v>273563</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4391961147257152</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.397939621520023</v>
+        <v>0.3929680786283693</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4803869083162527</v>
+        <v>0.4808740967630305</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>701</v>
@@ -1498,19 +1498,19 @@
         <v>749178</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>712382</v>
+        <v>705327</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>789540</v>
+        <v>788644</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5053674267171943</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4805458472638559</v>
+        <v>0.4757870260504863</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5325936734613599</v>
+        <v>0.5319896553976903</v>
       </c>
     </row>
     <row r="15">
@@ -1602,19 +1602,19 @@
         <v>3893</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12806</v>
+        <v>12490</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01238958826050456</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002871735564952757</v>
+        <v>0.002860371029648993</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0407533711898883</v>
+        <v>0.03974787801412236</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6000</v>
+        <v>6546</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.007997280540461171</v>
@@ -1635,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02554260118787819</v>
+        <v>0.02786599478111957</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -1644,19 +1644,19 @@
         <v>5772</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1905</v>
+        <v>1926</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13619</v>
+        <v>12967</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01051072894573502</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003469198416095207</v>
+        <v>0.003506618124181815</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02480116625543634</v>
+        <v>0.0236141896212654</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>8648</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3912</v>
+        <v>3444</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>18475</v>
+        <v>18294</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02751950743670496</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.012448234477402</v>
+        <v>0.01096090883350121</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05879233809733612</v>
+        <v>0.05821767473970423</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -1694,19 +1694,19 @@
         <v>4751</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1002</v>
+        <v>1340</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11663</v>
+        <v>13231</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02022720532685859</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.00426606747070462</v>
+        <v>0.005703826226912588</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04965348773456685</v>
+        <v>0.0563279803611548</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>11</v>
@@ -1715,19 +1715,19 @@
         <v>13399</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6990</v>
+        <v>7503</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>24003</v>
+        <v>24435</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02440014271581443</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01272986578950968</v>
+        <v>0.01366265577135055</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.043711496951748</v>
+        <v>0.04449767513080771</v>
       </c>
     </row>
     <row r="18">
@@ -1744,19 +1744,19 @@
         <v>29927</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>19466</v>
+        <v>20098</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>42035</v>
+        <v>41798</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.09523756264613643</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.06194715035029578</v>
+        <v>0.06395999043736057</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.133770736307164</v>
+        <v>0.1330147020318585</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>23</v>
@@ -1765,19 +1765,19 @@
         <v>26453</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>16818</v>
+        <v>17483</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>39144</v>
+        <v>38529</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1126144964565469</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.07159802561467128</v>
+        <v>0.07442793849263347</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1666441542175133</v>
+        <v>0.1640258187168899</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>51</v>
@@ -1786,19 +1786,19 @@
         <v>56380</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>41824</v>
+        <v>43791</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>72248</v>
+        <v>73303</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.102670742658283</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.07616414962827019</v>
+        <v>0.07974674469198746</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1315679489750959</v>
+        <v>0.133489853960925</v>
       </c>
     </row>
     <row r="19">
@@ -1815,19 +1815,19 @@
         <v>51357</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>37862</v>
+        <v>38589</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>67124</v>
+        <v>68073</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1634365227553645</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1204887764738773</v>
+        <v>0.1228026569257491</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2136111673048045</v>
+        <v>0.2166318166946382</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>37</v>
@@ -1836,19 +1836,19 @@
         <v>40810</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>30753</v>
+        <v>29610</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>55036</v>
+        <v>54484</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1737348776867144</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1309205623940318</v>
+        <v>0.1260555461751345</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2342987943506613</v>
+        <v>0.2319482265311091</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>85</v>
@@ -1857,19 +1857,19 @@
         <v>92167</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>74607</v>
+        <v>74627</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>111651</v>
+        <v>111658</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1678417605763108</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1358635773010486</v>
+        <v>0.135901022770136</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2033224153947819</v>
+        <v>0.203335037069981</v>
       </c>
     </row>
     <row r="20">
@@ -1886,19 +1886,19 @@
         <v>220409</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>201326</v>
+        <v>201869</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>237079</v>
+        <v>237166</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7014168189012896</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6406896271094832</v>
+        <v>0.6424150323318114</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7544652018387095</v>
+        <v>0.7547448638530897</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>144</v>
@@ -1907,19 +1907,19 @@
         <v>161005</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>146126</v>
+        <v>143652</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>176428</v>
+        <v>174073</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.685426139989419</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6220869932876449</v>
+        <v>0.6115529690295974</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.751088509306027</v>
+        <v>0.7410600637531788</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>343</v>
@@ -1928,19 +1928,19 @@
         <v>381414</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>358868</v>
+        <v>357917</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>402804</v>
+        <v>404437</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6945766251038568</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.653519947503462</v>
+        <v>0.6517872067819975</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7335304195577587</v>
+        <v>0.7365041298195431</v>
       </c>
     </row>
     <row r="21">
@@ -2032,19 +2032,19 @@
         <v>22549</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>14257</v>
+        <v>14558</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>32215</v>
+        <v>34036</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01598297456382592</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01010562839776526</v>
+        <v>0.01031895476933528</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0228342669282964</v>
+        <v>0.0241251015472668</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>17</v>
@@ -2053,19 +2053,19 @@
         <v>17738</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>11014</v>
+        <v>10640</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>27536</v>
+        <v>28291</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01885182018175924</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01170563675690433</v>
+        <v>0.01130766161601329</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02926518084990061</v>
+        <v>0.03006726587537548</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>39</v>
@@ -2074,19 +2074,19 @@
         <v>40287</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>29162</v>
+        <v>28955</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>53519</v>
+        <v>54150</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01713079500203656</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01240012721572055</v>
+        <v>0.01231209253007512</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02275719572460374</v>
+        <v>0.02302561984293301</v>
       </c>
     </row>
     <row r="23">
@@ -2103,19 +2103,19 @@
         <v>50441</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>37354</v>
+        <v>37453</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>67671</v>
+        <v>69064</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03575360243590942</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0264768622310339</v>
+        <v>0.02654717462658536</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.0479659355887005</v>
+        <v>0.04895374721692679</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>33</v>
@@ -2124,19 +2124,19 @@
         <v>39235</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>27894</v>
+        <v>27383</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>56039</v>
+        <v>55618</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.04169805003902732</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02964543702006163</v>
+        <v>0.02910182198899108</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.05955695320759709</v>
+        <v>0.05910945138036034</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>77</v>
@@ -2145,19 +2145,19 @@
         <v>89676</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>71039</v>
+        <v>70907</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>112248</v>
+        <v>111288</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03813196619660779</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03020727091101959</v>
+        <v>0.03015087076608464</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04772993666475421</v>
+        <v>0.04732179440752461</v>
       </c>
     </row>
     <row r="24">
@@ -2174,19 +2174,19 @@
         <v>192336</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>166864</v>
+        <v>167984</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>221373</v>
+        <v>220989</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1363304904866703</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1182754595495404</v>
+        <v>0.1190694255247685</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1569123889276073</v>
+        <v>0.1566399882372668</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>143</v>
@@ -2195,19 +2195,19 @@
         <v>154624</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>133447</v>
+        <v>132146</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>178688</v>
+        <v>178796</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.164331551487793</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1418256930372975</v>
+        <v>0.1404422958362581</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1899073170915914</v>
+        <v>0.1900213002362138</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>324</v>
@@ -2216,19 +2216,19 @@
         <v>346960</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>315155</v>
+        <v>311332</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>381482</v>
+        <v>385357</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1475336691825754</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1340097147687488</v>
+        <v>0.1323842622780911</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1622134278551466</v>
+        <v>0.1638610340958078</v>
       </c>
     </row>
     <row r="25">
@@ -2245,19 +2245,19 @@
         <v>321423</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>290757</v>
+        <v>290369</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>353973</v>
+        <v>357764</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2278295165532373</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2060926717539494</v>
+        <v>0.2058173569844533</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2509009357458531</v>
+        <v>0.2535880360326558</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>223</v>
@@ -2266,19 +2266,19 @@
         <v>237308</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>208852</v>
+        <v>210397</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>265677</v>
+        <v>266128</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.252207489757771</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2219646222230741</v>
+        <v>0.2236071431804428</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2823578341791791</v>
+        <v>0.2828369764363813</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>532</v>
@@ -2287,19 +2287,19 @@
         <v>558732</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>519257</v>
+        <v>513043</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>604364</v>
+        <v>599890</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2375831037492163</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2207977679961479</v>
+        <v>0.2181553630521031</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2569867271263482</v>
+        <v>0.2550844873074432</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>824057</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>784761</v>
+        <v>785041</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>862891</v>
+        <v>864615</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5841034159603571</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5562499904260975</v>
+        <v>0.5564484319063473</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6116291799038278</v>
+        <v>0.6128515201267437</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>452</v>
@@ -2337,19 +2337,19 @@
         <v>492020</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>462670</v>
+        <v>458588</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>522924</v>
+        <v>522810</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5229110885336494</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4917186960327899</v>
+        <v>0.4873802683894221</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5557556689695218</v>
+        <v>0.5556351681897473</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1221</v>
@@ -2358,19 +2358,19 @@
         <v>1316077</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1268549</v>
+        <v>1267202</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1367677</v>
+        <v>1367551</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5596204658695639</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5394107698457011</v>
+        <v>0.5388379337931407</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5815616862444527</v>
+        <v>0.5815080916414116</v>
       </c>
     </row>
     <row r="27">
@@ -2701,19 +2701,19 @@
         <v>8576</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4162</v>
+        <v>3783</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16248</v>
+        <v>15485</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06069313771454229</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02945844055767063</v>
+        <v>0.02677623235817177</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1149890658157819</v>
+        <v>0.1095913269809532</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4596</v>
+        <v>5234</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01494698784395837</v>
@@ -2734,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0664903838220095</v>
+        <v>0.07571333033850282</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -2743,19 +2743,19 @@
         <v>9609</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4988</v>
+        <v>4873</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>17168</v>
+        <v>17540</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04566487783081992</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02370650272166951</v>
+        <v>0.02315712952219654</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08158617044058226</v>
+        <v>0.08335622381518493</v>
       </c>
     </row>
     <row r="5">
@@ -2772,19 +2772,19 @@
         <v>8662</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4062</v>
+        <v>4107</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>16148</v>
+        <v>15495</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06130263825270894</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02874438309368938</v>
+        <v>0.02906446262869003</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1142849433740906</v>
+        <v>0.1096637362575322</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>10</v>
@@ -2793,19 +2793,19 @@
         <v>10026</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5700</v>
+        <v>5379</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>16533</v>
+        <v>17426</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1450366239577665</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08245180936228923</v>
+        <v>0.07780890203777867</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.239168222098413</v>
+        <v>0.2520839226626812</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>18</v>
@@ -2814,19 +2814,19 @@
         <v>18688</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>11273</v>
+        <v>12217</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>28039</v>
+        <v>28297</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08881044168175053</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05357056173554779</v>
+        <v>0.05806051153142028</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1332503077444449</v>
+        <v>0.1344742199170906</v>
       </c>
     </row>
     <row r="6">
@@ -2843,19 +2843,19 @@
         <v>30740</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>21794</v>
+        <v>20695</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>42601</v>
+        <v>40382</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2175497600059431</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1542397139054352</v>
+        <v>0.1464649570724267</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3014968936648409</v>
+        <v>0.2857907265169456</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>20</v>
@@ -2864,19 +2864,19 @@
         <v>19641</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>13032</v>
+        <v>12480</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>27076</v>
+        <v>26870</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2841305019333409</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1885246385946004</v>
+        <v>0.1805418677728805</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3916811075905922</v>
+        <v>0.3886952384326585</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>49</v>
@@ -2885,19 +2885,19 @@
         <v>50381</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>39662</v>
+        <v>39771</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>64528</v>
+        <v>64922</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2394224792569985</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1884831666468841</v>
+        <v>0.1890005763789053</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3066520624220643</v>
+        <v>0.3085241450219297</v>
       </c>
     </row>
     <row r="7">
@@ -2914,19 +2914,19 @@
         <v>40765</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>29500</v>
+        <v>30603</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>52175</v>
+        <v>53249</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2885031436101426</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2087806654082261</v>
+        <v>0.2165850540160702</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3692555572873635</v>
+        <v>0.3768541896054027</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>16</v>
@@ -2935,19 +2935,19 @@
         <v>16056</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10179</v>
+        <v>10154</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23961</v>
+        <v>23807</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2322717569356323</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1472499384919276</v>
+        <v>0.1468937846034179</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3466146003736243</v>
+        <v>0.3443905334694867</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>55</v>
@@ -2956,19 +2956,19 @@
         <v>56822</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>43245</v>
+        <v>44600</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>68706</v>
+        <v>70704</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2700303345331535</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2055109938254567</v>
+        <v>0.21195190711064</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3265082050705421</v>
+        <v>0.3360007341631716</v>
       </c>
     </row>
     <row r="8">
@@ -2985,19 +2985,19 @@
         <v>52556</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>40611</v>
+        <v>41174</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>64035</v>
+        <v>65271</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3719513204166631</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2874084348851767</v>
+        <v>0.291394157170757</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4531854503488756</v>
+        <v>0.4619367811171192</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>22</v>
@@ -3006,19 +3006,19 @@
         <v>22371</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>14637</v>
+        <v>15542</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>29809</v>
+        <v>30756</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3236141293293019</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2117437499556001</v>
+        <v>0.2248340813815797</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4312170174583385</v>
+        <v>0.4449189303090923</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>70</v>
@@ -3027,19 +3027,19 @@
         <v>74927</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>59957</v>
+        <v>61910</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>88605</v>
+        <v>88829</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3560718666972775</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2849318807997504</v>
+        <v>0.2942124125614798</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4210743999602813</v>
+        <v>0.4221383477677055</v>
       </c>
     </row>
     <row r="9">
@@ -3131,19 +3131,19 @@
         <v>25992</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16655</v>
+        <v>17403</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>38274</v>
+        <v>38944</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02815420935930026</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01804045724972413</v>
+        <v>0.01885114895654462</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04145821686667966</v>
+        <v>0.04218419672307751</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>20</v>
@@ -3152,19 +3152,19 @@
         <v>22048</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14427</v>
+        <v>14161</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>34988</v>
+        <v>34205</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03389134903283839</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02217758368086133</v>
+        <v>0.0217678994250519</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05378286020009963</v>
+        <v>0.05257870714720327</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>43</v>
@@ -3173,19 +3173,19 @@
         <v>48040</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>35077</v>
+        <v>36019</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>63030</v>
+        <v>65922</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03052578755655359</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02228861693065064</v>
+        <v>0.02288761651076716</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04005102074565987</v>
+        <v>0.04188876412884152</v>
       </c>
     </row>
     <row r="11">
@@ -3202,19 +3202,19 @@
         <v>49444</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>36439</v>
+        <v>36813</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>63370</v>
+        <v>64201</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.05355696796447344</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03947025892412168</v>
+        <v>0.03987493096379326</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.06864130494975007</v>
+        <v>0.06954225150765431</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>50</v>
@@ -3223,19 +3223,19 @@
         <v>50088</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>38198</v>
+        <v>37559</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>66382</v>
+        <v>65867</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.07699428705881972</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05871727061937821</v>
+        <v>0.05773496607580794</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1020403090988409</v>
+        <v>0.1012498430914831</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>96</v>
@@ -3244,19 +3244,19 @@
         <v>99532</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>81475</v>
+        <v>81158</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>120742</v>
+        <v>118314</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.06324532106882487</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05177125173660877</v>
+        <v>0.05156971844152988</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0767229741419073</v>
+        <v>0.0751800398327846</v>
       </c>
     </row>
     <row r="12">
@@ -3273,19 +3273,19 @@
         <v>215170</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>188556</v>
+        <v>189606</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>243178</v>
+        <v>243745</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2330689929055786</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2042420099702734</v>
+        <v>0.2053784614875528</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2634071509600168</v>
+        <v>0.264021819247779</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>130</v>
@@ -3294,19 +3294,19 @@
         <v>128523</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>109670</v>
+        <v>110115</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>147577</v>
+        <v>151737</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1975632583066031</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1685819588243854</v>
+        <v>0.1692668807710828</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2268527558662584</v>
+        <v>0.233246233919102</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>327</v>
@@ -3315,19 +3315,19 @@
         <v>343693</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>309503</v>
+        <v>310278</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>378493</v>
+        <v>376810</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2183918836065358</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1966663725065759</v>
+        <v>0.1971589872835304</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2405048470341841</v>
+        <v>0.239435333406002</v>
       </c>
     </row>
     <row r="13">
@@ -3344,19 +3344,19 @@
         <v>264541</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>238471</v>
+        <v>238675</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>293708</v>
+        <v>292602</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2865470668186003</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.258309209332405</v>
+        <v>0.2585298944823529</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.318140581848581</v>
+        <v>0.3169427820322673</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>212</v>
@@ -3365,19 +3365,19 @@
         <v>215495</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>192481</v>
+        <v>191627</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>243826</v>
+        <v>238138</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3312536044824199</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2958779982006872</v>
+        <v>0.2945644292544692</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3748033616302706</v>
+        <v>0.3660597399668279</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>465</v>
@@ -3386,19 +3386,19 @@
         <v>480036</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>443973</v>
+        <v>445298</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>518409</v>
+        <v>517874</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3050275389756975</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2821124542583919</v>
+        <v>0.2829541003282596</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3294111535714503</v>
+        <v>0.3290711835781447</v>
       </c>
     </row>
     <row r="14">
@@ -3415,19 +3415,19 @@
         <v>368055</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>337886</v>
+        <v>338351</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>395664</v>
+        <v>401598</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3986727629520475</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3659936930298995</v>
+        <v>0.3664976313767871</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4285786971532445</v>
+        <v>0.4350055579112526</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>224</v>
@@ -3436,19 +3436,19 @@
         <v>234389</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>209121</v>
+        <v>208479</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>258575</v>
+        <v>261894</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.360297501119319</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3214564534346176</v>
+        <v>0.3204692056647004</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3974749318900836</v>
+        <v>0.4025770536215074</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>568</v>
@@ -3457,19 +3457,19 @@
         <v>602444</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>565371</v>
+        <v>563182</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>644070</v>
+        <v>638576</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3828094687923882</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3592519230748773</v>
+        <v>0.3578609121927476</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4092591466992417</v>
+        <v>0.4057682153549201</v>
       </c>
     </row>
     <row r="15">
@@ -3561,19 +3561,19 @@
         <v>4071</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1041</v>
+        <v>1051</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9343</v>
+        <v>11404</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0116828724715223</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002986247349672968</v>
+        <v>0.003015304051154285</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02681460266924489</v>
+        <v>0.03273008669474328</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -3582,19 +3582,19 @@
         <v>4424</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1236</v>
+        <v>1243</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10930</v>
+        <v>11951</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01434112789503401</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004007562073450354</v>
+        <v>0.004028247219478382</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03543611613162694</v>
+        <v>0.03874618833381081</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -3603,19 +3603,19 @@
         <v>8494</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4163</v>
+        <v>4129</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>15908</v>
+        <v>16847</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01293109637466405</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006338128630322641</v>
+        <v>0.006285201454948765</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02421704031377953</v>
+        <v>0.02564648673140944</v>
       </c>
     </row>
     <row r="17">
@@ -3632,19 +3632,19 @@
         <v>16828</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9489</v>
+        <v>9079</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>27041</v>
+        <v>28558</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04829529119694114</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02723427033514272</v>
+        <v>0.02605723687561826</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07760676369651204</v>
+        <v>0.08196030408660343</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>14</v>
@@ -3653,19 +3653,19 @@
         <v>13982</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>8171</v>
+        <v>7786</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>23278</v>
+        <v>22299</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04533009381000699</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02648876051506148</v>
+        <v>0.02524105431768818</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07546683245056969</v>
+        <v>0.07229231128325805</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>28</v>
@@ -3674,19 +3674,19 @@
         <v>30810</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>20997</v>
+        <v>21021</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>44480</v>
+        <v>43513</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04690293806820563</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03196352333411443</v>
+        <v>0.032000395634623</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06771301159653066</v>
+        <v>0.06624023252282395</v>
       </c>
     </row>
     <row r="18">
@@ -3703,19 +3703,19 @@
         <v>37745</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>25498</v>
+        <v>27418</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>52237</v>
+        <v>52099</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1083256979806519</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0731767982897789</v>
+        <v>0.07868907692136665</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1499165712117964</v>
+        <v>0.149521957963213</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>37</v>
@@ -3724,19 +3724,19 @@
         <v>36554</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>26005</v>
+        <v>26718</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>49261</v>
+        <v>48541</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1185082785101774</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08430722815298337</v>
+        <v>0.08661933821289919</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1597047878083596</v>
+        <v>0.1573693841476354</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>69</v>
@@ -3745,19 +3745,19 @@
         <v>74299</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>59041</v>
+        <v>60387</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>93089</v>
+        <v>93044</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1131070821547237</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.08987878923548963</v>
+        <v>0.0919287436699516</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1417116903756239</v>
+        <v>0.1416437429763185</v>
       </c>
     </row>
     <row r="19">
@@ -3774,19 +3774,19 @@
         <v>71579</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>56451</v>
+        <v>56347</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>88474</v>
+        <v>88284</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2054290147594711</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1620106721235423</v>
+        <v>0.16171364423873</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2539163084960149</v>
+        <v>0.2533710748016635</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>57</v>
@@ -3795,19 +3795,19 @@
         <v>57603</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>45146</v>
+        <v>45347</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>72723</v>
+        <v>72938</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1867487586069699</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1463615663320045</v>
+        <v>0.1470136030220556</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2357665605156687</v>
+        <v>0.2364631076685187</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>123</v>
@@ -3816,19 +3816,19 @@
         <v>129182</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>109003</v>
+        <v>107467</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>151584</v>
+        <v>149950</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1966574189074971</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1659382313541543</v>
+        <v>0.1635989331673361</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2307595083779585</v>
+        <v>0.2282726550677768</v>
       </c>
     </row>
     <row r="20">
@@ -3845,19 +3845,19 @@
         <v>218215</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>199192</v>
+        <v>198660</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>236219</v>
+        <v>236408</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6262671235914136</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5716722502101635</v>
+        <v>0.5701456033582728</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6779357852419824</v>
+        <v>0.6784789471386932</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>187</v>
@@ -3866,19 +3866,19 @@
         <v>195890</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>176917</v>
+        <v>178281</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>211147</v>
+        <v>211852</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6350717411778118</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5735608129798494</v>
+        <v>0.5779835000371158</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6845356371982657</v>
+        <v>0.6868218180847715</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>390</v>
@@ -3887,19 +3887,19 @@
         <v>414105</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>387100</v>
+        <v>388156</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>437926</v>
+        <v>437376</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6304014644949095</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5892917650702891</v>
+        <v>0.5908984509767079</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6666645754700012</v>
+        <v>0.6658273383301957</v>
       </c>
     </row>
     <row r="21">
@@ -3991,19 +3991,19 @@
         <v>38639</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>28432</v>
+        <v>26764</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>54124</v>
+        <v>52653</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02734629774533939</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02012238818520761</v>
+        <v>0.01894201045069928</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0383056778882461</v>
+        <v>0.0372651752605083</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>25</v>
@@ -4012,19 +4012,19 @@
         <v>27505</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>17686</v>
+        <v>18193</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>39573</v>
+        <v>41533</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02675221666424284</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01720207328136799</v>
+        <v>0.01769532544756456</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.038490225315528</v>
+        <v>0.0403965143952049</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>60</v>
@@ -4033,19 +4033,19 @@
         <v>66143</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>50891</v>
+        <v>51228</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>85226</v>
+        <v>83741</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02709608316417372</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02084780337853851</v>
+        <v>0.02098591739412936</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03491346960399633</v>
+        <v>0.03430531676187693</v>
       </c>
     </row>
     <row r="23">
@@ -4062,19 +4062,19 @@
         <v>74934</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>58365</v>
+        <v>59951</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>92135</v>
+        <v>94925</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.05303400481737344</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.04130766577922575</v>
+        <v>0.04243015432271509</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.06520789474803876</v>
+        <v>0.06718262617602498</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>74</v>
@@ -4083,19 +4083,19 @@
         <v>74096</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>60410</v>
+        <v>59533</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>92626</v>
+        <v>90672</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.07206952414946138</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.05875709837910316</v>
+        <v>0.05790398864351976</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.09009222765376287</v>
+        <v>0.0881913457465176</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>142</v>
@@ -4104,19 +4104,19 @@
         <v>149030</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>126372</v>
+        <v>126484</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>174065</v>
+        <v>172706</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.06105136919490574</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.05176924496345651</v>
+        <v>0.05181501167313717</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.07130718561602467</v>
+        <v>0.0707505280931191</v>
       </c>
     </row>
     <row r="24">
@@ -4133,19 +4133,19 @@
         <v>283654</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>253271</v>
+        <v>254407</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>316054</v>
+        <v>314055</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2007546513829878</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1792514793874163</v>
+        <v>0.180055507757879</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2236858522878527</v>
+        <v>0.2222708168442406</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>187</v>
@@ -4154,19 +4154,19 @@
         <v>184719</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>162316</v>
+        <v>160740</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>212203</v>
+        <v>208747</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1796660978625376</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1578755935047762</v>
+        <v>0.1563428839660072</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2063978377490917</v>
+        <v>0.2030367204679971</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>445</v>
@@ -4175,19 +4175,19 @@
         <v>468373</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>427728</v>
+        <v>429226</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>506572</v>
+        <v>510605</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1918725917544106</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1752222258602553</v>
+        <v>0.175835858219887</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2075212136719774</v>
+        <v>0.2091733088288516</v>
       </c>
     </row>
     <row r="25">
@@ -4204,19 +4204,19 @@
         <v>376885</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>344297</v>
+        <v>346204</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>416074</v>
+        <v>413591</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2667385362279079</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2436743481001411</v>
+        <v>0.2450242236672026</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2944740949361584</v>
+        <v>0.2927169934041022</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>285</v>
@@ -4225,19 +4225,19 @@
         <v>289155</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>259316</v>
+        <v>263988</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>318651</v>
+        <v>323887</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2812446714578877</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2522219098069889</v>
+        <v>0.2567661895503282</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3099342106450826</v>
+        <v>0.3150266897990211</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>643</v>
@@ -4246,19 +4246,19 @@
         <v>666040</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>614711</v>
+        <v>619723</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>711063</v>
+        <v>707950</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2728482183342668</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2518210524763377</v>
+        <v>0.2538740855092957</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2912923026479591</v>
+        <v>0.2900171154319792</v>
       </c>
     </row>
     <row r="26">
@@ -4275,19 +4275,19 @@
         <v>638827</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>603432</v>
+        <v>600496</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>681260</v>
+        <v>678301</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4521265098263914</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4270757680360313</v>
+        <v>0.424997901148895</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4821585960862839</v>
+        <v>0.4800643837845064</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>433</v>
@@ -4296,19 +4296,19 @@
         <v>452650</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>419702</v>
+        <v>419941</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>483896</v>
+        <v>484796</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4402674898658704</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.408220584078971</v>
+        <v>0.4084530717205761</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4706586715220927</v>
+        <v>0.471534474745315</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1028</v>
@@ -4317,19 +4317,19 @@
         <v>1091477</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1043378</v>
+        <v>1043590</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1143742</v>
+        <v>1140637</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4471317375522432</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4274276675127538</v>
+        <v>0.4275143701954985</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4685426876478649</v>
+        <v>0.4672707761982601</v>
       </c>
     </row>
     <row r="27">
